--- a/results/mp/logistic/corona/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,57 +40,60 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>drop</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -103,154 +106,145 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>sharing</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>god</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>safety</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>increase</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increased</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -608,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7534246575342466</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C4">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8916666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5945945945945946</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5882352941176471</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,16 +942,16 @@
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5526315789473685</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,49 +1021,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C10">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>110</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L10">
+        <v>88</v>
+      </c>
+      <c r="M10">
+        <v>88</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10">
-        <v>0.835509138381201</v>
-      </c>
-      <c r="L10">
-        <v>320</v>
-      </c>
-      <c r="M10">
-        <v>320</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.417989417989418</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12">
         <v>0.8055555555555556</v>
@@ -1177,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3856589147286822</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C13">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3529411764705883</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7924528301886793</v>
+        <v>0.7890625</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.288135593220339</v>
+        <v>0.3585271317829458</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2533333333333334</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2363636363636364</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>59</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1812080536912752</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.7727272727272727</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.07539682539682539</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.7682926829268293</v>
+        <v>0.775</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,37 +1521,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00676328502415459</v>
+        <v>0.00841908325537886</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="F20">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3084</v>
+        <v>2120</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7605633802816901</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L20">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1569,21 +1563,45 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.005804579168010319</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+      <c r="F21">
+        <v>0.75</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3083</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.7575757575757576</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1595,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1647,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1673,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.723404255319149</v>
+        <v>0.7</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1699,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.7037037037037037</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1725,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.6842105263157895</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1751,12 +1769,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>0.6744186046511628</v>
@@ -1782,16 +1800,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1803,12 +1821,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30">
         <v>0.6666666666666666</v>
@@ -1834,16 +1852,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1855,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.6363636363636364</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1881,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.6285714285714286</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1907,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1933,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.6205882352941177</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L35">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1959,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.5857740585774058</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L36">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M36">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1985,21 +2003,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.5830508474576271</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L37">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2011,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.55</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2037,21 +2055,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.5652173913043478</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2063,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.5425531914893617</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M40">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2089,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.5416666666666666</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2115,21 +2133,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2141,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.5168539325842697</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2167,21 +2185,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.5142857142857142</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2193,21 +2211,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2219,47 +2237,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.4878048780487805</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.4545454545454545</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2271,21 +2289,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K48">
-        <v>0.4117647058823529</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2297,21 +2315,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K49">
-        <v>0.4</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2323,21 +2341,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K50">
-        <v>0.3333333333333333</v>
+        <v>0.21875</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2349,21 +2367,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K51">
-        <v>0.3287671232876712</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2375,85 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K52">
-        <v>0.2372881355932203</v>
-      </c>
-      <c r="L52">
-        <v>14</v>
-      </c>
-      <c r="M52">
-        <v>14</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K53">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="L53">
-        <v>14</v>
-      </c>
-      <c r="M53">
-        <v>14</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
         <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54">
-        <v>0.005642633228840125</v>
-      </c>
-      <c r="L54">
-        <v>18</v>
-      </c>
-      <c r="M54">
-        <v>29</v>
-      </c>
-      <c r="N54">
-        <v>0.62</v>
-      </c>
-      <c r="O54">
-        <v>0.38</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>3172</v>
       </c>
     </row>
   </sheetData>
